--- a/Documents/Finance/Financial Report 1 Submission/Business plan.xlsx
+++ b/Documents/Finance/Financial Report 1 Submission/Business plan.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="0" windowWidth="26160" windowHeight="13740"/>
+    <workbookView xWindow="260" yWindow="0" windowWidth="22560" windowHeight="15220"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Buisness Projection" sheetId="1" r:id="rId1"/>
+    <sheet name="Timesheets" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$S$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Buisness Projection'!$A$2:$S$55</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="64">
   <si>
     <t>RENT DUE</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>BUSINESS PLAN AS AT 21/02/2014</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="30">
+  <cellStyleXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -485,8 +488,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -671,6 +676,7 @@
     <xf numFmtId="164" fontId="6" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -684,7 +690,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="30">
+  <cellStyles count="32">
     <cellStyle name="40% - Accent4" xfId="2" builtinId="43"/>
     <cellStyle name="40% - Accent5" xfId="3" builtinId="47"/>
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -701,6 +707,7 @@
     <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
@@ -714,6 +721,7 @@
     <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1013,86 +1021,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:HA57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:209" ht="59.25" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:209" ht="59.25" customHeight="1">
+      <c r="A1" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-    </row>
-    <row r="2" spans="1:209" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="108" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+    </row>
+    <row r="2" spans="1:209" ht="18">
+      <c r="B2" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
       <c r="G2" s="9"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="108" t="s">
+      <c r="J2" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
       <c r="V2" s="66"/>
       <c r="W2" s="66"/>
       <c r="X2" s="66"/>
@@ -1103,7 +1111,7 @@
       <c r="AC2" s="66"/>
       <c r="AD2" s="66"/>
     </row>
-    <row r="3" spans="1:209" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:209" s="1" customFormat="1">
       <c r="A3" s="16"/>
       <c r="B3" s="17" t="s">
         <v>45</v>
@@ -1156,7 +1164,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:209" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:209" s="14" customFormat="1">
       <c r="A4" s="19" t="s">
         <v>26</v>
       </c>
@@ -1377,7 +1385,7 @@
       <c r="GZ4" s="9"/>
       <c r="HA4" s="9"/>
     </row>
-    <row r="5" spans="1:209" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:209">
       <c r="A5" s="22">
         <v>1</v>
       </c>
@@ -1432,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="107">
-        <f>Sheet2!M3</f>
+        <f>Timesheets!M3</f>
         <v>0</v>
       </c>
       <c r="V5" s="9"/>
@@ -1624,7 +1632,7 @@
       <c r="GZ5" s="9"/>
       <c r="HA5" s="9"/>
     </row>
-    <row r="6" spans="1:209" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:209">
       <c r="A6" s="22">
         <v>2</v>
       </c>
@@ -1680,7 +1688,7 @@
         <v>700</v>
       </c>
       <c r="U6" s="107">
-        <f>Sheet2!M4</f>
+        <f>Timesheets!M4</f>
         <v>700</v>
       </c>
       <c r="V6" s="9"/>
@@ -1872,7 +1880,7 @@
       <c r="GZ6" s="9"/>
       <c r="HA6" s="9"/>
     </row>
-    <row r="7" spans="1:209" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:209">
       <c r="A7" s="22">
         <v>3</v>
       </c>
@@ -1927,7 +1935,7 @@
         <v>987.5</v>
       </c>
       <c r="U7" s="107">
-        <f>Sheet2!M5</f>
+        <f>Timesheets!M5</f>
         <v>987.5</v>
       </c>
       <c r="V7" s="9"/>
@@ -2121,7 +2129,7 @@
       <c r="GZ7" s="9"/>
       <c r="HA7" s="9"/>
     </row>
-    <row r="8" spans="1:209" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:209" s="6" customFormat="1">
       <c r="A8" s="27">
         <v>4</v>
       </c>
@@ -2180,14 +2188,14 @@
         <v>1243.75</v>
       </c>
       <c r="U8" s="107">
-        <f>Sheet2!M6</f>
+        <f>Timesheets!M6</f>
         <v>1243.75</v>
       </c>
       <c r="W8" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:209" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:209" s="9" customFormat="1">
       <c r="A9" s="32">
         <v>5</v>
       </c>
@@ -2241,14 +2249,14 @@
         <v>1324.5</v>
       </c>
       <c r="U9" s="107">
-        <f>Sheet2!M7</f>
-        <v>0</v>
+        <f>Timesheets!M7</f>
+        <v>1175</v>
       </c>
       <c r="W9" s="101" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:209" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:209" s="10" customFormat="1">
       <c r="A10" s="37">
         <v>6</v>
       </c>
@@ -2305,14 +2313,14 @@
         <v>1416.25</v>
       </c>
       <c r="U10" s="107">
-        <f>Sheet2!M8</f>
-        <v>0</v>
+        <f>Timesheets!M8</f>
+        <v>1450</v>
       </c>
       <c r="W10" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:209" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:209" s="6" customFormat="1">
       <c r="A11" s="27">
         <v>7</v>
       </c>
@@ -2369,8 +2377,8 @@
         <v>1508</v>
       </c>
       <c r="U11" s="107">
-        <f>Sheet2!M9</f>
-        <v>0</v>
+        <f>Timesheets!M9</f>
+        <v>1715.25</v>
       </c>
       <c r="W11" s="101" t="s">
         <v>50</v>
@@ -2379,7 +2387,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:209" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:209" s="9" customFormat="1">
       <c r="A12" s="32">
         <v>8</v>
       </c>
@@ -2433,14 +2441,14 @@
         <v>1416.25</v>
       </c>
       <c r="U12" s="107">
-        <f>Sheet2!M10</f>
-        <v>0</v>
+        <f>Timesheets!M10</f>
+        <v>1325</v>
       </c>
       <c r="W12" s="101" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:209" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:209" s="9" customFormat="1">
       <c r="A13" s="32">
         <v>9</v>
       </c>
@@ -2494,14 +2502,14 @@
         <v>1141</v>
       </c>
       <c r="U13" s="107">
-        <f>Sheet2!M11</f>
+        <f>Timesheets!M11</f>
         <v>0</v>
       </c>
       <c r="W13" s="102" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:209" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:209" s="11" customFormat="1">
       <c r="A14" s="42">
         <v>10</v>
       </c>
@@ -2559,12 +2567,12 @@
         <v>1232.75</v>
       </c>
       <c r="U14" s="107">
-        <f>Sheet2!M12</f>
+        <f>Timesheets!M12</f>
         <v>0</v>
       </c>
       <c r="W14" s="9"/>
     </row>
-    <row r="15" spans="1:209" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:209" s="14" customFormat="1">
       <c r="A15" s="19" t="s">
         <v>27</v>
       </c>
@@ -2590,7 +2598,7 @@
       <c r="S15" s="77"/>
       <c r="T15" s="107"/>
       <c r="U15" s="107">
-        <f>Sheet2!M13</f>
+        <f>Timesheets!M13</f>
         <v>0</v>
       </c>
       <c r="V15" s="9"/>
@@ -2782,7 +2790,7 @@
       <c r="GZ15" s="9"/>
       <c r="HA15" s="9"/>
     </row>
-    <row r="16" spans="1:209" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:209" s="9" customFormat="1">
       <c r="A16" s="32">
         <v>1</v>
       </c>
@@ -2836,11 +2844,11 @@
         <v>750</v>
       </c>
       <c r="U16" s="107">
-        <f>Sheet2!M14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:209" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <f>Timesheets!M14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:209" s="9" customFormat="1">
       <c r="A17" s="32">
         <v>2</v>
       </c>
@@ -2894,11 +2902,11 @@
         <v>750</v>
       </c>
       <c r="U17" s="107">
-        <f>Sheet2!M15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:209" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <f>Timesheets!M15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:209" s="9" customFormat="1">
       <c r="A18" s="32">
         <v>3</v>
       </c>
@@ -2952,11 +2960,11 @@
         <v>750</v>
       </c>
       <c r="U18" s="107">
-        <f>Sheet2!M16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:209" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <f>Timesheets!M16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:209" s="9" customFormat="1">
       <c r="A19" s="32">
         <v>4</v>
       </c>
@@ -3010,11 +3018,11 @@
         <v>750</v>
       </c>
       <c r="U19" s="107">
-        <f>Sheet2!M17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:209" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <f>Timesheets!M17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:209" s="9" customFormat="1">
       <c r="A20" s="32">
         <v>5</v>
       </c>
@@ -3068,11 +3076,11 @@
         <v>750</v>
       </c>
       <c r="U20" s="107">
-        <f>Sheet2!M18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:209" s="14" customFormat="1" x14ac:dyDescent="0.25">
+        <f>Timesheets!M18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:209" s="14" customFormat="1">
       <c r="A21" s="19" t="s">
         <v>28</v>
       </c>
@@ -3098,7 +3106,7 @@
       <c r="S21" s="77"/>
       <c r="T21" s="107"/>
       <c r="U21" s="107">
-        <f>Sheet2!M19</f>
+        <f>Timesheets!M19</f>
         <v>0</v>
       </c>
       <c r="V21" s="9"/>
@@ -3290,7 +3298,7 @@
       <c r="GZ21" s="9"/>
       <c r="HA21" s="9"/>
     </row>
-    <row r="22" spans="1:209" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:209" s="9" customFormat="1">
       <c r="A22" s="32">
         <v>1</v>
       </c>
@@ -3344,11 +3352,11 @@
         <v>957.5</v>
       </c>
       <c r="U22" s="107">
-        <f>Sheet2!M20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:209" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <f>Timesheets!M20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:209" s="9" customFormat="1">
       <c r="A23" s="32">
         <v>2</v>
       </c>
@@ -3402,14 +3410,14 @@
         <v>957.5</v>
       </c>
       <c r="U23" s="107">
-        <f>Sheet2!M21</f>
+        <f>Timesheets!M21</f>
         <v>0</v>
       </c>
       <c r="W23" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:209" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:209" s="9" customFormat="1">
       <c r="A24" s="32">
         <v>3</v>
       </c>
@@ -3463,12 +3471,12 @@
         <v>1232.75</v>
       </c>
       <c r="U24" s="107">
-        <f>Sheet2!M22</f>
+        <f>Timesheets!M22</f>
         <v>0</v>
       </c>
       <c r="W24" s="6"/>
     </row>
-    <row r="25" spans="1:209" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:209" s="6" customFormat="1">
       <c r="A25" s="27">
         <v>4</v>
       </c>
@@ -3525,12 +3533,12 @@
         <v>957.5</v>
       </c>
       <c r="U25" s="107">
-        <f>Sheet2!M23</f>
+        <f>Timesheets!M23</f>
         <v>0</v>
       </c>
       <c r="W25" s="9"/>
     </row>
-    <row r="26" spans="1:209" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:209" s="9" customFormat="1">
       <c r="A26" s="51">
         <v>5</v>
       </c>
@@ -3584,14 +3592,14 @@
         <v>957.5</v>
       </c>
       <c r="U26" s="107">
-        <f>Sheet2!M24</f>
+        <f>Timesheets!M24</f>
         <v>0</v>
       </c>
       <c r="W26" s="101" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:209" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:209" s="10" customFormat="1">
       <c r="A27" s="56">
         <v>6</v>
       </c>
@@ -3648,12 +3656,12 @@
         <v>1232.75</v>
       </c>
       <c r="U27" s="107">
-        <f>Sheet2!M25</f>
+        <f>Timesheets!M25</f>
         <v>0</v>
       </c>
       <c r="W27" s="6"/>
     </row>
-    <row r="28" spans="1:209" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:209" s="6" customFormat="1">
       <c r="A28" s="27">
         <v>7</v>
       </c>
@@ -3710,14 +3718,14 @@
         <v>957.5</v>
       </c>
       <c r="U28" s="107">
-        <f>Sheet2!M26</f>
+        <f>Timesheets!M26</f>
         <v>0</v>
       </c>
       <c r="W28" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:209" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:209" s="9" customFormat="1">
       <c r="A29" s="51">
         <v>8</v>
       </c>
@@ -3771,11 +3779,11 @@
         <v>1508</v>
       </c>
       <c r="U29" s="107">
-        <f>Sheet2!M27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:209" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <f>Timesheets!M27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:209" s="9" customFormat="1">
       <c r="A30" s="51">
         <v>9</v>
       </c>
@@ -3829,11 +3837,11 @@
         <v>957.5</v>
       </c>
       <c r="U30" s="107">
-        <f>Sheet2!M28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:209" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <f>Timesheets!M28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:209" s="11" customFormat="1">
       <c r="A31" s="42">
         <v>10</v>
       </c>
@@ -3891,11 +3899,11 @@
         <v>957.5</v>
       </c>
       <c r="U31" s="107">
-        <f>Sheet2!M29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:209" x14ac:dyDescent="0.25">
+        <f>Timesheets!M29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:209">
       <c r="A32" s="22"/>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
@@ -4006,7 +4014,7 @@
       <c r="DD32" s="9"/>
       <c r="DE32" s="9"/>
     </row>
-    <row r="33" spans="1:109" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:109" s="70" customFormat="1">
       <c r="A33" s="67" t="s">
         <v>21</v>
       </c>
@@ -4079,7 +4087,7 @@
       </c>
       <c r="U33" s="89">
         <f t="shared" si="1"/>
-        <v>2931.25</v>
+        <v>8596.5</v>
       </c>
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
@@ -4169,7 +4177,7 @@
       <c r="DD33" s="9"/>
       <c r="DE33" s="9"/>
     </row>
-    <row r="34" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:109">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -4191,7 +4199,7 @@
       </c>
       <c r="U34" s="9"/>
     </row>
-    <row r="35" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:109">
       <c r="J35" s="64" t="s">
         <v>22</v>
       </c>
@@ -4200,21 +4208,21 @@
         <v>46875</v>
       </c>
     </row>
-    <row r="36" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:109">
       <c r="J36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:109">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:109">
       <c r="A38" s="3"/>
-      <c r="J38" s="109" t="s">
+      <c r="J38" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="K38" s="109"/>
-      <c r="L38" s="110"/>
+      <c r="K38" s="110"/>
+      <c r="L38" s="111"/>
       <c r="M38" s="92"/>
       <c r="N38" s="94"/>
       <c r="O38" s="17" t="s">
@@ -4222,7 +4230,7 @@
       </c>
       <c r="P38" s="86"/>
     </row>
-    <row r="39" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:109">
       <c r="A39" s="3"/>
       <c r="J39" s="91" t="s">
         <v>59</v>
@@ -4236,7 +4244,7 @@
       </c>
       <c r="P39" s="86"/>
     </row>
-    <row r="40" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:109">
       <c r="J40" s="98" t="s">
         <v>25</v>
       </c>
@@ -4250,7 +4258,7 @@
       </c>
       <c r="P40" s="86"/>
     </row>
-    <row r="41" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:109">
       <c r="J41" s="91" t="s">
         <v>43</v>
       </c>
@@ -4265,7 +4273,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:109">
       <c r="J42" s="91" t="s">
         <v>30</v>
       </c>
@@ -4280,7 +4288,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:109">
       <c r="J43" s="99" t="s">
         <v>39</v>
       </c>
@@ -4294,7 +4302,7 @@
       </c>
       <c r="P43" s="86"/>
     </row>
-    <row r="44" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:109">
       <c r="J44" s="99" t="s">
         <v>40</v>
       </c>
@@ -4308,7 +4316,7 @@
       </c>
       <c r="P44" s="86"/>
     </row>
-    <row r="45" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:109">
       <c r="J45" s="99" t="s">
         <v>41</v>
       </c>
@@ -4322,23 +4330,23 @@
       </c>
       <c r="P45" s="86"/>
     </row>
-    <row r="47" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:109">
       <c r="J47" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:109">
       <c r="J48" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:8">
       <c r="G55" s="97"/>
       <c r="H55" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="7:8">
       <c r="G57" s="15"/>
     </row>
   </sheetData>
@@ -4349,7 +4357,6 @@
     <mergeCell ref="A1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="68" orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4360,19 +4367,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
@@ -4409,7 +4416,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="19" t="s">
         <v>18</v>
       </c>
@@ -4428,7 +4435,7 @@
       <c r="L2" s="72"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="73">
         <v>41645</v>
       </c>
@@ -4470,7 +4477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="73">
         <v>41652</v>
       </c>
@@ -4513,7 +4520,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="73">
         <v>41659</v>
       </c>
@@ -4555,7 +4562,7 @@
         <v>987.5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="73">
         <v>41666</v>
       </c>
@@ -4599,73 +4606,127 @@
         <v>1243.75</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="73">
         <v>41673</v>
       </c>
       <c r="B7" s="78">
         <v>5</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="77"/>
+      <c r="C7" s="77">
+        <v>175</v>
+      </c>
+      <c r="D7" s="77">
+        <v>125</v>
+      </c>
+      <c r="E7" s="77">
+        <v>125</v>
+      </c>
+      <c r="F7" s="105">
+        <v>250</v>
+      </c>
+      <c r="G7" s="105">
+        <v>150</v>
+      </c>
+      <c r="H7" s="105">
+        <v>100</v>
+      </c>
+      <c r="I7" s="86"/>
+      <c r="J7" s="105">
+        <v>62.5</v>
+      </c>
+      <c r="K7" s="105">
+        <v>125</v>
+      </c>
+      <c r="L7" s="77">
+        <v>62.5</v>
+      </c>
       <c r="M7" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="73">
         <v>41680</v>
       </c>
       <c r="B8" s="79">
         <v>6</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="105"/>
+      <c r="C8" s="77">
+        <v>187.5</v>
+      </c>
+      <c r="D8" s="77">
+        <v>137.5</v>
+      </c>
+      <c r="E8" s="77">
+        <v>187.5</v>
+      </c>
+      <c r="F8" s="77">
+        <v>100</v>
+      </c>
+      <c r="G8" s="105">
+        <v>125</v>
+      </c>
+      <c r="H8" s="105">
+        <v>175</v>
+      </c>
+      <c r="I8" s="86"/>
+      <c r="J8" s="105">
+        <v>137.5</v>
+      </c>
+      <c r="K8" s="77">
+        <v>137.5</v>
+      </c>
+      <c r="L8" s="105">
+        <v>262.5</v>
+      </c>
       <c r="M8" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="73">
         <v>41687</v>
       </c>
       <c r="B9" s="76">
         <v>7</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
+      <c r="C9" s="105">
+        <v>237.5</v>
+      </c>
+      <c r="D9" s="105">
+        <v>150</v>
+      </c>
+      <c r="E9" s="105">
+        <v>150</v>
+      </c>
+      <c r="F9" s="77">
+        <v>265.25</v>
+      </c>
+      <c r="G9" s="77">
+        <v>112.5</v>
+      </c>
+      <c r="H9" s="105">
+        <v>137.5</v>
+      </c>
+      <c r="I9" s="86"/>
+      <c r="J9" s="77">
+        <v>162.5</v>
+      </c>
+      <c r="K9" s="77">
+        <v>125</v>
+      </c>
+      <c r="L9" s="77">
+        <v>375</v>
+      </c>
       <c r="M9" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1715.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="73">
         <v>41694</v>
       </c>
@@ -4673,21 +4734,37 @@
         <v>8</v>
       </c>
       <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
+      <c r="D10" s="77">
+        <v>162.5</v>
+      </c>
+      <c r="E10" s="77">
+        <v>150</v>
+      </c>
+      <c r="F10" s="105">
+        <v>175</v>
+      </c>
+      <c r="G10" s="77">
+        <v>125</v>
+      </c>
+      <c r="H10" s="105">
+        <v>150</v>
+      </c>
+      <c r="I10" s="86"/>
+      <c r="J10" s="77">
+        <v>62.5</v>
+      </c>
+      <c r="K10" s="105">
+        <v>187.5</v>
+      </c>
+      <c r="L10" s="105">
+        <v>312.5</v>
+      </c>
       <c r="M10" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="73">
         <v>41701</v>
       </c>
@@ -4709,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="73">
         <v>41708</v>
       </c>
@@ -4731,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="19" t="s">
         <v>19</v>
       </c>
@@ -4748,7 +4825,7 @@
       <c r="L13" s="77"/>
       <c r="M13" s="13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="73">
         <v>41715</v>
       </c>
@@ -4770,7 +4847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="73">
         <v>41722</v>
       </c>
@@ -4792,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="73">
         <v>41729</v>
       </c>
@@ -4814,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="73">
         <v>41736</v>
       </c>
@@ -4836,7 +4913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="73">
         <v>41743</v>
       </c>
@@ -4858,7 +4935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="19" t="s">
         <v>20</v>
       </c>
@@ -4875,7 +4952,7 @@
       <c r="L19" s="77"/>
       <c r="M19" s="13"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="73">
         <v>41750</v>
       </c>
@@ -4897,7 +4974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="73">
         <v>41757</v>
       </c>
@@ -4919,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="73">
         <v>41764</v>
       </c>
@@ -4941,7 +5018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="73">
         <v>41771</v>
       </c>
@@ -4963,7 +5040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="73">
         <v>41778</v>
       </c>
@@ -4985,7 +5062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="73">
         <v>41785</v>
       </c>
@@ -5007,7 +5084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="73">
         <v>41792</v>
       </c>
@@ -5029,7 +5106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="73">
         <v>41799</v>
       </c>
@@ -5051,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="73">
         <v>41806</v>
       </c>
@@ -5073,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="73">
         <v>41813</v>
       </c>
@@ -5093,6 +5170,55 @@
       <c r="M29" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="B31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="12">
+        <f>SUM(C3:C29)</f>
+        <v>987.5</v>
+      </c>
+      <c r="D31" s="12">
+        <f>SUM(D3:D29)</f>
+        <v>937.5</v>
+      </c>
+      <c r="E31" s="12">
+        <f>SUM(E3:E29)</f>
+        <v>1000</v>
+      </c>
+      <c r="F31" s="12">
+        <f t="shared" ref="F31:M31" si="1">SUM(F3:F29)</f>
+        <v>1040.25</v>
+      </c>
+      <c r="G31" s="12">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="H31" s="12">
+        <f t="shared" si="1"/>
+        <v>812.5</v>
+      </c>
+      <c r="I31" s="12">
+        <f t="shared" si="1"/>
+        <v>325</v>
+      </c>
+      <c r="J31" s="12">
+        <f t="shared" si="1"/>
+        <v>712.5</v>
+      </c>
+      <c r="K31" s="12">
+        <f t="shared" si="1"/>
+        <v>837.5</v>
+      </c>
+      <c r="L31" s="12">
+        <f t="shared" si="1"/>
+        <v>1243.75</v>
+      </c>
+      <c r="M31" s="108">
+        <f t="shared" si="1"/>
+        <v>8596.5</v>
       </c>
     </row>
   </sheetData>
@@ -5111,7 +5237,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Documents/Finance/Financial Report 1 Submission/Business plan.xlsx
+++ b/Documents/Finance/Financial Report 1 Submission/Business plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="0" windowWidth="22560" windowHeight="15220"/>
+    <workbookView xWindow="260" yWindow="0" windowWidth="18100" windowHeight="15220"/>
   </bookViews>
   <sheets>
     <sheet name="Buisness Projection" sheetId="1" r:id="rId1"/>
@@ -1026,8 +1026,8 @@
   </sheetPr>
   <dimension ref="A1:HA57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2208,6 +2208,7 @@
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="36"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="73">
         <v>41673</v>
       </c>
@@ -2250,7 +2251,7 @@
       </c>
       <c r="U9" s="107">
         <f>Timesheets!M7</f>
-        <v>1175</v>
+        <v>1300</v>
       </c>
       <c r="W9" s="101" t="s">
         <v>48</v>
@@ -2314,7 +2315,7 @@
       </c>
       <c r="U10" s="107">
         <f>Timesheets!M8</f>
-        <v>1450</v>
+        <v>1612.5</v>
       </c>
       <c r="W10" s="6" t="s">
         <v>49</v>
@@ -2378,7 +2379,7 @@
       </c>
       <c r="U11" s="107">
         <f>Timesheets!M9</f>
-        <v>1715.25</v>
+        <v>1890.25</v>
       </c>
       <c r="W11" s="101" t="s">
         <v>50</v>
@@ -2442,7 +2443,7 @@
       </c>
       <c r="U12" s="107">
         <f>Timesheets!M10</f>
-        <v>1325</v>
+        <v>1525</v>
       </c>
       <c r="W12" s="101" t="s">
         <v>51</v>
@@ -4087,7 +4088,7 @@
       </c>
       <c r="U33" s="89">
         <f t="shared" si="1"/>
-        <v>8596.5</v>
+        <v>9259</v>
       </c>
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
@@ -4370,7 +4371,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4631,7 +4632,9 @@
       <c r="H7" s="105">
         <v>100</v>
       </c>
-      <c r="I7" s="86"/>
+      <c r="I7" s="75">
+        <v>125</v>
+      </c>
       <c r="J7" s="105">
         <v>62.5</v>
       </c>
@@ -4643,7 +4646,7 @@
       </c>
       <c r="M7" s="13">
         <f t="shared" si="0"/>
-        <v>1175</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -4671,7 +4674,9 @@
       <c r="H8" s="105">
         <v>175</v>
       </c>
-      <c r="I8" s="86"/>
+      <c r="I8" s="75">
+        <v>162.5</v>
+      </c>
       <c r="J8" s="105">
         <v>137.5</v>
       </c>
@@ -4683,7 +4688,7 @@
       </c>
       <c r="M8" s="13">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>1612.5</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -4711,7 +4716,9 @@
       <c r="H9" s="105">
         <v>137.5</v>
       </c>
-      <c r="I9" s="86"/>
+      <c r="I9" s="75">
+        <v>175</v>
+      </c>
       <c r="J9" s="77">
         <v>162.5</v>
       </c>
@@ -4723,7 +4730,7 @@
       </c>
       <c r="M9" s="13">
         <f t="shared" si="0"/>
-        <v>1715.25</v>
+        <v>1890.25</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -4733,7 +4740,9 @@
       <c r="B10" s="78">
         <v>8</v>
       </c>
-      <c r="C10" s="77"/>
+      <c r="C10" s="77">
+        <v>112.5</v>
+      </c>
       <c r="D10" s="77">
         <v>162.5</v>
       </c>
@@ -4749,7 +4758,9 @@
       <c r="H10" s="105">
         <v>150</v>
       </c>
-      <c r="I10" s="86"/>
+      <c r="I10" s="75">
+        <v>87.5</v>
+      </c>
       <c r="J10" s="77">
         <v>62.5</v>
       </c>
@@ -4761,7 +4772,7 @@
       </c>
       <c r="M10" s="13">
         <f t="shared" si="0"/>
-        <v>1325</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -5178,7 +5189,7 @@
       </c>
       <c r="C31" s="12">
         <f>SUM(C3:C29)</f>
-        <v>987.5</v>
+        <v>1100</v>
       </c>
       <c r="D31" s="12">
         <f>SUM(D3:D29)</f>
@@ -5202,7 +5213,7 @@
       </c>
       <c r="I31" s="12">
         <f t="shared" si="1"/>
-        <v>325</v>
+        <v>875</v>
       </c>
       <c r="J31" s="12">
         <f t="shared" si="1"/>
@@ -5218,7 +5229,7 @@
       </c>
       <c r="M31" s="108">
         <f t="shared" si="1"/>
-        <v>8596.5</v>
+        <v>9259</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Finance/Financial Report 1 Submission/Business plan.xlsx
+++ b/Documents/Finance/Financial Report 1 Submission/Business plan.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="0" windowWidth="22560" windowHeight="15220"/>
+    <workbookView xWindow="6600" yWindow="0" windowWidth="22560" windowHeight="15220"/>
   </bookViews>
   <sheets>
     <sheet name="Buisness Projection" sheetId="1" r:id="rId1"/>
@@ -457,11 +457,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="32">
+  <cellStyleXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -690,7 +694,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="32">
+  <cellStyles count="36">
     <cellStyle name="40% - Accent4" xfId="2" builtinId="43"/>
     <cellStyle name="40% - Accent5" xfId="3" builtinId="47"/>
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -708,6 +712,8 @@
     <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
@@ -722,6 +728,8 @@
     <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1026,8 +1034,8 @@
   </sheetPr>
   <dimension ref="A1:HA57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2249,8 +2257,7 @@
         <v>1324.5</v>
       </c>
       <c r="U9" s="107">
-        <f>Timesheets!M7</f>
-        <v>1175</v>
+        <v>1300</v>
       </c>
       <c r="W9" s="101" t="s">
         <v>48</v>
@@ -2313,8 +2320,7 @@
         <v>1416.25</v>
       </c>
       <c r="U10" s="107">
-        <f>Timesheets!M8</f>
-        <v>1450</v>
+        <v>1612.5</v>
       </c>
       <c r="W10" s="6" t="s">
         <v>49</v>
@@ -2377,8 +2383,7 @@
         <v>1508</v>
       </c>
       <c r="U11" s="107">
-        <f>Timesheets!M9</f>
-        <v>1715.25</v>
+        <v>1890.25</v>
       </c>
       <c r="W11" s="101" t="s">
         <v>50</v>
@@ -2441,8 +2446,7 @@
         <v>1416.25</v>
       </c>
       <c r="U12" s="107">
-        <f>Timesheets!M10</f>
-        <v>1325</v>
+        <v>1475</v>
       </c>
       <c r="W12" s="101" t="s">
         <v>51</v>
@@ -4087,7 +4091,7 @@
       </c>
       <c r="U33" s="89">
         <f t="shared" si="1"/>
-        <v>8596.5</v>
+        <v>9209</v>
       </c>
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
@@ -4357,6 +4361,7 @@
     <mergeCell ref="A1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Documents/Finance/Financial Report 1 Submission/Business plan.xlsx
+++ b/Documents/Finance/Financial Report 1 Submission/Business plan.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="0" windowWidth="22560" windowHeight="15220"/>
+    <workbookView xWindow="260" yWindow="0" windowWidth="18100" windowHeight="15220"/>
   </bookViews>
   <sheets>
     <sheet name="Buisness Projection" sheetId="1" r:id="rId1"/>
@@ -457,15 +457,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -694,7 +690,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="36">
+  <cellStyles count="32">
     <cellStyle name="40% - Accent4" xfId="2" builtinId="43"/>
     <cellStyle name="40% - Accent5" xfId="3" builtinId="47"/>
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -712,8 +708,6 @@
     <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
@@ -728,8 +722,6 @@
     <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1034,8 +1026,8 @@
   </sheetPr>
   <dimension ref="A1:HA57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2216,6 +2208,7 @@
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="36"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="73">
         <v>41673</v>
       </c>
@@ -2257,6 +2250,7 @@
         <v>1324.5</v>
       </c>
       <c r="U9" s="107">
+        <f>Timesheets!M7</f>
         <v>1300</v>
       </c>
       <c r="W9" s="101" t="s">
@@ -2320,6 +2314,7 @@
         <v>1416.25</v>
       </c>
       <c r="U10" s="107">
+        <f>Timesheets!M8</f>
         <v>1612.5</v>
       </c>
       <c r="W10" s="6" t="s">
@@ -2383,6 +2378,7 @@
         <v>1508</v>
       </c>
       <c r="U11" s="107">
+        <f>Timesheets!M9</f>
         <v>1890.25</v>
       </c>
       <c r="W11" s="101" t="s">
@@ -2446,7 +2442,8 @@
         <v>1416.25</v>
       </c>
       <c r="U12" s="107">
-        <v>1475</v>
+        <f>Timesheets!M10</f>
+        <v>1525</v>
       </c>
       <c r="W12" s="101" t="s">
         <v>51</v>
@@ -4091,7 +4088,7 @@
       </c>
       <c r="U33" s="89">
         <f t="shared" si="1"/>
-        <v>9209</v>
+        <v>9259</v>
       </c>
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
@@ -4361,7 +4358,6 @@
     <mergeCell ref="A1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4375,7 +4371,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4636,7 +4632,9 @@
       <c r="H7" s="105">
         <v>100</v>
       </c>
-      <c r="I7" s="86"/>
+      <c r="I7" s="75">
+        <v>125</v>
+      </c>
       <c r="J7" s="105">
         <v>62.5</v>
       </c>
@@ -4648,7 +4646,7 @@
       </c>
       <c r="M7" s="13">
         <f t="shared" si="0"/>
-        <v>1175</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -4676,7 +4674,9 @@
       <c r="H8" s="105">
         <v>175</v>
       </c>
-      <c r="I8" s="86"/>
+      <c r="I8" s="75">
+        <v>162.5</v>
+      </c>
       <c r="J8" s="105">
         <v>137.5</v>
       </c>
@@ -4688,7 +4688,7 @@
       </c>
       <c r="M8" s="13">
         <f t="shared" si="0"/>
-        <v>1450</v>
+        <v>1612.5</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -4716,7 +4716,9 @@
       <c r="H9" s="105">
         <v>137.5</v>
       </c>
-      <c r="I9" s="86"/>
+      <c r="I9" s="75">
+        <v>175</v>
+      </c>
       <c r="J9" s="77">
         <v>162.5</v>
       </c>
@@ -4728,7 +4730,7 @@
       </c>
       <c r="M9" s="13">
         <f t="shared" si="0"/>
-        <v>1715.25</v>
+        <v>1890.25</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -4738,7 +4740,9 @@
       <c r="B10" s="78">
         <v>8</v>
       </c>
-      <c r="C10" s="77"/>
+      <c r="C10" s="77">
+        <v>112.5</v>
+      </c>
       <c r="D10" s="77">
         <v>162.5</v>
       </c>
@@ -4754,7 +4758,9 @@
       <c r="H10" s="105">
         <v>150</v>
       </c>
-      <c r="I10" s="86"/>
+      <c r="I10" s="75">
+        <v>87.5</v>
+      </c>
       <c r="J10" s="77">
         <v>62.5</v>
       </c>
@@ -4766,7 +4772,7 @@
       </c>
       <c r="M10" s="13">
         <f t="shared" si="0"/>
-        <v>1325</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -5183,7 +5189,7 @@
       </c>
       <c r="C31" s="12">
         <f>SUM(C3:C29)</f>
-        <v>987.5</v>
+        <v>1100</v>
       </c>
       <c r="D31" s="12">
         <f>SUM(D3:D29)</f>
@@ -5207,7 +5213,7 @@
       </c>
       <c r="I31" s="12">
         <f t="shared" si="1"/>
-        <v>325</v>
+        <v>875</v>
       </c>
       <c r="J31" s="12">
         <f t="shared" si="1"/>
@@ -5223,7 +5229,7 @@
       </c>
       <c r="M31" s="108">
         <f t="shared" si="1"/>
-        <v>8596.5</v>
+        <v>9259</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Finance/Financial Report 1 Submission/Business plan.xlsx
+++ b/Documents/Finance/Financial Report 1 Submission/Business plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="0" windowWidth="18100" windowHeight="15220"/>
+    <workbookView xWindow="260" yWindow="0" windowWidth="18100" windowHeight="15220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Buisness Projection" sheetId="1" r:id="rId1"/>
@@ -1026,7 +1026,7 @@
   </sheetPr>
   <dimension ref="A1:HA57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="I21" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="U9" s="107">
         <f>Timesheets!M7</f>
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="W9" s="101" t="s">
         <v>48</v>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="U10" s="107">
         <f>Timesheets!M8</f>
-        <v>1612.5</v>
+        <v>0</v>
       </c>
       <c r="W10" s="6" t="s">
         <v>49</v>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="U11" s="107">
         <f>Timesheets!M9</f>
-        <v>1890.25</v>
+        <v>0</v>
       </c>
       <c r="W11" s="101" t="s">
         <v>50</v>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="U12" s="107">
         <f>Timesheets!M10</f>
-        <v>1525</v>
+        <v>0</v>
       </c>
       <c r="W12" s="101" t="s">
         <v>51</v>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="U33" s="89">
         <f t="shared" si="1"/>
-        <v>9259</v>
+        <v>2931.25</v>
       </c>
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
@@ -4370,8 +4370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4614,39 +4614,19 @@
       <c r="B7" s="78">
         <v>5</v>
       </c>
-      <c r="C7" s="77">
-        <v>175</v>
-      </c>
-      <c r="D7" s="77">
-        <v>125</v>
-      </c>
-      <c r="E7" s="77">
-        <v>125</v>
-      </c>
-      <c r="F7" s="105">
-        <v>250</v>
-      </c>
-      <c r="G7" s="105">
-        <v>150</v>
-      </c>
-      <c r="H7" s="105">
-        <v>100</v>
-      </c>
-      <c r="I7" s="75">
-        <v>125</v>
-      </c>
-      <c r="J7" s="105">
-        <v>62.5</v>
-      </c>
-      <c r="K7" s="105">
-        <v>125</v>
-      </c>
-      <c r="L7" s="77">
-        <v>62.5</v>
-      </c>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="77"/>
       <c r="M7" s="13">
         <f t="shared" si="0"/>
-        <v>1300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -4656,39 +4636,19 @@
       <c r="B8" s="79">
         <v>6</v>
       </c>
-      <c r="C8" s="77">
-        <v>187.5</v>
-      </c>
-      <c r="D8" s="77">
-        <v>137.5</v>
-      </c>
-      <c r="E8" s="77">
-        <v>187.5</v>
-      </c>
-      <c r="F8" s="77">
-        <v>100</v>
-      </c>
-      <c r="G8" s="105">
-        <v>125</v>
-      </c>
-      <c r="H8" s="105">
-        <v>175</v>
-      </c>
-      <c r="I8" s="75">
-        <v>162.5</v>
-      </c>
-      <c r="J8" s="105">
-        <v>137.5</v>
-      </c>
-      <c r="K8" s="77">
-        <v>137.5</v>
-      </c>
-      <c r="L8" s="105">
-        <v>262.5</v>
-      </c>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="105"/>
       <c r="M8" s="13">
         <f t="shared" si="0"/>
-        <v>1612.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -4698,39 +4658,19 @@
       <c r="B9" s="76">
         <v>7</v>
       </c>
-      <c r="C9" s="105">
-        <v>237.5</v>
-      </c>
-      <c r="D9" s="105">
-        <v>150</v>
-      </c>
-      <c r="E9" s="105">
-        <v>150</v>
-      </c>
-      <c r="F9" s="77">
-        <v>265.25</v>
-      </c>
-      <c r="G9" s="77">
-        <v>112.5</v>
-      </c>
-      <c r="H9" s="105">
-        <v>137.5</v>
-      </c>
-      <c r="I9" s="75">
-        <v>175</v>
-      </c>
-      <c r="J9" s="77">
-        <v>162.5</v>
-      </c>
-      <c r="K9" s="77">
-        <v>125</v>
-      </c>
-      <c r="L9" s="77">
-        <v>375</v>
-      </c>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
       <c r="M9" s="13">
         <f t="shared" si="0"/>
-        <v>1890.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -4740,39 +4680,19 @@
       <c r="B10" s="78">
         <v>8</v>
       </c>
-      <c r="C10" s="77">
-        <v>112.5</v>
-      </c>
-      <c r="D10" s="77">
-        <v>162.5</v>
-      </c>
-      <c r="E10" s="77">
-        <v>150</v>
-      </c>
-      <c r="F10" s="105">
-        <v>175</v>
-      </c>
-      <c r="G10" s="77">
-        <v>125</v>
-      </c>
-      <c r="H10" s="105">
-        <v>150</v>
-      </c>
-      <c r="I10" s="75">
-        <v>87.5</v>
-      </c>
-      <c r="J10" s="77">
-        <v>62.5</v>
-      </c>
-      <c r="K10" s="105">
-        <v>187.5</v>
-      </c>
-      <c r="L10" s="105">
-        <v>312.5</v>
-      </c>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
       <c r="M10" s="13">
         <f t="shared" si="0"/>
-        <v>1525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -5189,47 +5109,47 @@
       </c>
       <c r="C31" s="12">
         <f>SUM(C3:C29)</f>
-        <v>1100</v>
+        <v>387.5</v>
       </c>
       <c r="D31" s="12">
         <f>SUM(D3:D29)</f>
-        <v>937.5</v>
+        <v>362.5</v>
       </c>
       <c r="E31" s="12">
         <f>SUM(E3:E29)</f>
-        <v>1000</v>
+        <v>387.5</v>
       </c>
       <c r="F31" s="12">
         <f t="shared" ref="F31:M31" si="1">SUM(F3:F29)</f>
-        <v>1040.25</v>
+        <v>250</v>
       </c>
       <c r="G31" s="12">
         <f t="shared" si="1"/>
-        <v>700</v>
+        <v>187.5</v>
       </c>
       <c r="H31" s="12">
         <f t="shared" si="1"/>
-        <v>812.5</v>
+        <v>250</v>
       </c>
       <c r="I31" s="12">
         <f t="shared" si="1"/>
-        <v>875</v>
+        <v>325</v>
       </c>
       <c r="J31" s="12">
         <f t="shared" si="1"/>
-        <v>712.5</v>
+        <v>287.5</v>
       </c>
       <c r="K31" s="12">
         <f t="shared" si="1"/>
-        <v>837.5</v>
+        <v>262.5</v>
       </c>
       <c r="L31" s="12">
         <f t="shared" si="1"/>
-        <v>1243.75</v>
+        <v>231.25</v>
       </c>
       <c r="M31" s="108">
         <f t="shared" si="1"/>
-        <v>9259</v>
+        <v>2931.25</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Finance/Financial Report 1 Submission/Business plan.xlsx
+++ b/Documents/Finance/Financial Report 1 Submission/Business plan.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="0" windowWidth="18100" windowHeight="15220" activeTab="1"/>
+    <workbookView xWindow="260" yWindow="0" windowWidth="18100" windowHeight="15220"/>
   </bookViews>
   <sheets>
     <sheet name="Buisness Projection" sheetId="1" r:id="rId1"/>
@@ -1026,8 +1026,8 @@
   </sheetPr>
   <dimension ref="A1:HA57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="I21" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I21" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1041,7 +1041,7 @@
     <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
     <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.6640625" customWidth="1"/>
     <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
@@ -4370,7 +4370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
